--- a/data/JCOMSS/results_model2a.xlsx
+++ b/data/JCOMSS/results_model2a.xlsx
@@ -1573,31 +1573,31 @@
         <v>0.5</v>
       </c>
       <c r="AI3" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9987017891797556</v>
       </c>
       <c r="AJ3" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999153268141345</v>
       </c>
       <c r="AK3" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL3" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9972256818050763</v>
       </c>
       <c r="AM3" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN3" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO3" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP3" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ3" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1695,31 +1695,31 @@
         <v>0.5</v>
       </c>
       <c r="AI4" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="AJ4" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="AK4" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL4" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9994560544867048</v>
       </c>
       <c r="AM4" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN4" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO4" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP4" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ4" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1817,31 +1817,31 @@
         <v>0.5</v>
       </c>
       <c r="AI5" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ5" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK5" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL5" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="AM5" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN5" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO5" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP5" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ5" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1939,31 +1939,31 @@
         <v>0.5</v>
       </c>
       <c r="AI6" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ6" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK6" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL6" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999558722854878</v>
       </c>
       <c r="AM6" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN6" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO6" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP6" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ6" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2061,31 +2061,31 @@
         <v>0.5</v>
       </c>
       <c r="AI7" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990275682468105</v>
       </c>
       <c r="AJ7" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999972508470913</v>
       </c>
       <c r="AK7" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL7" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998881337585002</v>
       </c>
       <c r="AM7" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN7" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO7" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP7" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ7" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2183,31 +2183,31 @@
         <v>0.5</v>
       </c>
       <c r="AI8" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ8" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999993944165498</v>
       </c>
       <c r="AK8" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999999997741</v>
       </c>
       <c r="AL8" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9996953505635855</v>
       </c>
       <c r="AM8" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999999787358</v>
       </c>
       <c r="AN8" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO8" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9701123418208621</v>
       </c>
       <c r="AP8" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9991360989269302</v>
       </c>
       <c r="AQ8" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.9995761609582862</v>
       </c>
     </row>
     <row r="9">
@@ -2305,31 +2305,31 @@
         <v>0.5</v>
       </c>
       <c r="AI9" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ9" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK9" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL9" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999728629800868</v>
       </c>
       <c r="AM9" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN9" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO9" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP9" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ9" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2427,31 +2427,31 @@
         <v>0.5</v>
       </c>
       <c r="AI10" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9989134652963333</v>
       </c>
       <c r="AJ10" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999972051461203</v>
       </c>
       <c r="AK10" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL10" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.999791881744405</v>
       </c>
       <c r="AM10" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN10" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO10" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP10" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ10" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -2549,31 +2549,31 @@
         <v>0.5</v>
       </c>
       <c r="AI11" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ11" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999932213078087</v>
       </c>
       <c r="AK11" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL11" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999540351544275</v>
       </c>
       <c r="AM11" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN11" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO11" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP11" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ11" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -2671,31 +2671,31 @@
         <v>0.5</v>
       </c>
       <c r="AI12" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ12" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK12" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL12" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999728629800868</v>
       </c>
       <c r="AM12" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN12" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO12" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP12" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ12" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -2793,31 +2793,31 @@
         <v>0.5</v>
       </c>
       <c r="AI13" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990259385872776</v>
       </c>
       <c r="AJ13" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9963260641503227</v>
       </c>
       <c r="AK13" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL13" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998975035416051</v>
       </c>
       <c r="AM13" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN13" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO13" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP13" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ13" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -2915,31 +2915,31 @@
         <v>0.5</v>
       </c>
       <c r="AI14" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9993870689558018</v>
       </c>
       <c r="AJ14" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999908581559194</v>
       </c>
       <c r="AK14" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9872353648344216</v>
       </c>
       <c r="AL14" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999897276339219</v>
       </c>
       <c r="AM14" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999978485358655</v>
       </c>
       <c r="AN14" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999999521512</v>
       </c>
       <c r="AO14" t="n" s="83">
-        <v>0.5</v>
+        <v>0.962231743379469</v>
       </c>
       <c r="AP14" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999976536039148</v>
       </c>
       <c r="AQ14" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.8544882892382612E-8</v>
       </c>
     </row>
     <row r="15">
@@ -3037,31 +3037,31 @@
         <v>0.5</v>
       </c>
       <c r="AI15" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="AJ15" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999825641916354</v>
       </c>
       <c r="AK15" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL15" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9994560544867048</v>
       </c>
       <c r="AM15" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN15" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO15" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP15" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ15" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -3159,31 +3159,31 @@
         <v>0.5</v>
       </c>
       <c r="AI16" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9993870689558018</v>
       </c>
       <c r="AJ16" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999978545311691</v>
       </c>
       <c r="AK16" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999990292088</v>
       </c>
       <c r="AL16" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999982440220885</v>
       </c>
       <c r="AM16" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AN16" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO16" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999886041164</v>
       </c>
       <c r="AP16" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ16" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.9999997982341461</v>
       </c>
     </row>
     <row r="17">
@@ -3281,31 +3281,31 @@
         <v>0.5</v>
       </c>
       <c r="AI17" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9989264322563078</v>
       </c>
       <c r="AJ17" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999973337122806</v>
       </c>
       <c r="AK17" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL17" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9997944394827913</v>
       </c>
       <c r="AM17" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN17" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO17" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP17" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ17" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -3403,31 +3403,31 @@
         <v>0.5</v>
       </c>
       <c r="AI18" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="AJ18" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999992101949993</v>
       </c>
       <c r="AK18" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL18" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999863950028963</v>
       </c>
       <c r="AM18" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN18" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO18" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP18" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ18" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -3525,31 +3525,31 @@
         <v>0.5</v>
       </c>
       <c r="AI19" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ19" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK19" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL19" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999558722854878</v>
       </c>
       <c r="AM19" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN19" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO19" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP19" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ19" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -3647,31 +3647,31 @@
         <v>0.5</v>
       </c>
       <c r="AI20" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ20" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK20" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL20" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="AM20" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN20" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO20" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP20" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ20" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -3769,31 +3769,31 @@
         <v>0.5</v>
       </c>
       <c r="AI21" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="AJ21" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999992101949993</v>
       </c>
       <c r="AK21" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL21" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999913213840247</v>
       </c>
       <c r="AM21" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN21" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO21" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP21" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ21" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -3891,31 +3891,31 @@
         <v>0.5</v>
       </c>
       <c r="AI22" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ22" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK22" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL22" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999576266178845</v>
       </c>
       <c r="AM22" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN22" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO22" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP22" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ22" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -4013,31 +4013,31 @@
         <v>0.5</v>
       </c>
       <c r="AI23" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="AJ23" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999992101949993</v>
       </c>
       <c r="AK23" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL23" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999787397365469</v>
       </c>
       <c r="AM23" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN23" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO23" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP23" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ23" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -4135,31 +4135,31 @@
         <v>0.5</v>
       </c>
       <c r="AI24" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ24" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK24" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL24" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999576266178845</v>
       </c>
       <c r="AM24" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN24" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO24" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP24" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ24" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -4257,31 +4257,31 @@
         <v>0.5</v>
       </c>
       <c r="AI25" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ25" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999981137319682</v>
       </c>
       <c r="AK25" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL25" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="AM25" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN25" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO25" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP25" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ25" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -4379,31 +4379,31 @@
         <v>0.5</v>
       </c>
       <c r="AI26" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="AJ26" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9504450775158728</v>
       </c>
       <c r="AK26" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL26" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9830014514746194</v>
       </c>
       <c r="AM26" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN26" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO26" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP26" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ26" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -4501,31 +4501,31 @@
         <v>0.5</v>
       </c>
       <c r="AI27" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9993156432232382</v>
       </c>
       <c r="AJ27" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998837275878768</v>
       </c>
       <c r="AK27" t="n" s="83">
-        <v>0.5</v>
+        <v>0.8833329577826354</v>
       </c>
       <c r="AL27" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999645629594006</v>
       </c>
       <c r="AM27" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999825930674024</v>
       </c>
       <c r="AN27" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9998306365667042</v>
       </c>
       <c r="AO27" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9856943032811851</v>
       </c>
       <c r="AP27" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999997767682</v>
       </c>
       <c r="AQ27" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>9.68771383930798E-12</v>
       </c>
     </row>
     <row r="28">
@@ -4623,31 +4623,31 @@
         <v>0.5</v>
       </c>
       <c r="AI28" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9989300077204788</v>
       </c>
       <c r="AJ28" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999959956196225</v>
       </c>
       <c r="AK28" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL28" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998100355409644</v>
       </c>
       <c r="AM28" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN28" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO28" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP28" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ28" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -4745,31 +4745,31 @@
         <v>0.5</v>
       </c>
       <c r="AI29" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9985540037638162</v>
       </c>
       <c r="AJ29" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999915265188809</v>
       </c>
       <c r="AK29" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL29" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9975331021587649</v>
       </c>
       <c r="AM29" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN29" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO29" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP29" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ29" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -4867,31 +4867,31 @@
         <v>0.5</v>
       </c>
       <c r="AI30" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="AJ30" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9588608550077766</v>
       </c>
       <c r="AK30" t="n" s="83">
-        <v>0.5</v>
+        <v>0.662876092687713</v>
       </c>
       <c r="AL30" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.960904348159291</v>
       </c>
       <c r="AM30" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9190534012832824</v>
       </c>
       <c r="AN30" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9952803285011067</v>
       </c>
       <c r="AO30" t="n" s="83">
-        <v>0.5</v>
+        <v>0.6611008679250142</v>
       </c>
       <c r="AP30" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>2.658663564769034E-5</v>
       </c>
       <c r="AQ30" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.958357937121925E-24</v>
       </c>
     </row>
     <row r="31">
@@ -4989,31 +4989,31 @@
         <v>0.5</v>
       </c>
       <c r="AI31" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ31" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK31" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL31" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999717282078974</v>
       </c>
       <c r="AM31" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN31" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO31" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP31" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ31" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -5111,31 +5111,31 @@
         <v>0.5</v>
       </c>
       <c r="AI32" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="AJ32" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9433819098350584</v>
       </c>
       <c r="AK32" t="n" s="83">
-        <v>0.5</v>
+        <v>0.1991062547864606</v>
       </c>
       <c r="AL32" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9532107192577095</v>
       </c>
       <c r="AM32" t="n" s="83">
-        <v>0.5</v>
+        <v>0.8502287137449651</v>
       </c>
       <c r="AN32" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.7131385205711289</v>
       </c>
       <c r="AO32" t="n" s="83">
-        <v>0.5</v>
+        <v>0.6610985770001426</v>
       </c>
       <c r="AP32" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>5.98472154428105E-6</v>
       </c>
       <c r="AQ32" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.11938804825768E-26</v>
       </c>
     </row>
     <row r="33">
@@ -5233,31 +5233,31 @@
         <v>0.5</v>
       </c>
       <c r="AI33" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ33" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="AK33" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="AL33" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="AM33" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="AN33" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.14301324377235541</v>
       </c>
       <c r="AO33" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="AP33" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="AQ33" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.12604849363419E-21</v>
       </c>
     </row>
     <row r="34">
@@ -5355,31 +5355,31 @@
         <v>0.5</v>
       </c>
       <c r="AI34" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ34" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="AK34" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938785599812437</v>
       </c>
       <c r="AL34" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="AM34" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966700618670401</v>
       </c>
       <c r="AN34" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.06257470437979058</v>
       </c>
       <c r="AO34" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7351263744167347</v>
       </c>
       <c r="AP34" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>4.5429554041481735E-4</v>
       </c>
       <c r="AQ34" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.297816175103146E-24</v>
       </c>
     </row>
     <row r="35">
@@ -5477,31 +5477,31 @@
         <v>0.5</v>
       </c>
       <c r="AI35" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ35" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="AK35" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="AL35" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="AM35" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="AN35" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.14301324377235541</v>
       </c>
       <c r="AO35" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="AP35" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="AQ35" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.12604849363419E-21</v>
       </c>
     </row>
     <row r="36">
@@ -5599,31 +5599,31 @@
         <v>0.5</v>
       </c>
       <c r="AI36" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991681596896833</v>
       </c>
       <c r="AJ36" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9978124780855379</v>
       </c>
       <c r="AK36" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9785059274948732</v>
       </c>
       <c r="AL36" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9995489354651423</v>
       </c>
       <c r="AM36" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9998793782443874</v>
       </c>
       <c r="AN36" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO36" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9967825422084882</v>
       </c>
       <c r="AP36" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="AQ36" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>4.343341801322696E-4</v>
       </c>
     </row>
     <row r="37">
@@ -5721,31 +5721,31 @@
         <v>0.5</v>
       </c>
       <c r="AI37" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ37" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="AK37" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="AL37" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="AM37" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="AN37" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.14301324377235544</v>
       </c>
       <c r="AO37" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="AP37" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="AQ37" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.1260484936341924E-21</v>
       </c>
     </row>
     <row r="38">
@@ -5843,31 +5843,31 @@
         <v>0.5</v>
       </c>
       <c r="AI38" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9989530748069835</v>
       </c>
       <c r="AJ38" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.959836277940426</v>
       </c>
       <c r="AK38" t="n" s="83">
-        <v>0.5</v>
+        <v>0.14271596628164496</v>
       </c>
       <c r="AL38" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9828880683855409</v>
       </c>
       <c r="AM38" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9671308618232445</v>
       </c>
       <c r="AN38" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>6.561808760913198E-4</v>
       </c>
       <c r="AO38" t="n" s="83">
-        <v>0.5</v>
+        <v>0.8918913251261122</v>
       </c>
       <c r="AP38" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.8700728130569624</v>
       </c>
       <c r="AQ38" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.0158027657970884E-24</v>
       </c>
     </row>
     <row r="39">
@@ -5965,31 +5965,31 @@
         <v>0.5</v>
       </c>
       <c r="AI39" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ39" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999777443159815</v>
       </c>
       <c r="AK39" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL39" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999458811962675</v>
       </c>
       <c r="AM39" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN39" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO39" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP39" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ39" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -6087,31 +6087,31 @@
         <v>0.5</v>
       </c>
       <c r="AI40" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.8079781228852596</v>
       </c>
       <c r="AJ40" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.16943117444459677</v>
       </c>
       <c r="AK40" t="n" s="83">
-        <v>0.5</v>
+        <v>0.01580970532382293</v>
       </c>
       <c r="AL40" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.16108974540677734</v>
       </c>
       <c r="AM40" t="n" s="83">
-        <v>0.5</v>
+        <v>9.839952013435154E-5</v>
       </c>
       <c r="AN40" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>9.666420797592983E-12</v>
       </c>
       <c r="AO40" t="n" s="83">
-        <v>0.5</v>
+        <v>3.1735021751319256E-4</v>
       </c>
       <c r="AP40" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.8611506839177255E-16</v>
       </c>
       <c r="AQ40" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.2598824048604298E-38</v>
       </c>
     </row>
     <row r="41">
@@ -6209,31 +6209,31 @@
         <v>0.5</v>
       </c>
       <c r="AI41" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990930418389443</v>
       </c>
       <c r="AJ41" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9936375652382657</v>
       </c>
       <c r="AK41" t="n" s="83">
-        <v>0.5</v>
+        <v>0.4358727415091178</v>
       </c>
       <c r="AL41" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9985621383712279</v>
       </c>
       <c r="AM41" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9984767612207937</v>
       </c>
       <c r="AN41" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.6557810414795598</v>
       </c>
       <c r="AO41" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9222162007935704</v>
       </c>
       <c r="AP41" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.003605975397477039</v>
       </c>
       <c r="AQ41" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.5670984608908203E-21</v>
       </c>
     </row>
     <row r="42">
@@ -6331,31 +6331,31 @@
         <v>0.5</v>
       </c>
       <c r="AI42" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ42" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9888176184223004</v>
       </c>
       <c r="AK42" t="n" s="83">
-        <v>0.5</v>
+        <v>0.5511161799336712</v>
       </c>
       <c r="AL42" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="AM42" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966727623464213</v>
       </c>
       <c r="AN42" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999857375661314</v>
       </c>
       <c r="AO42" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9042408257395299</v>
       </c>
       <c r="AP42" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9963357916945074</v>
       </c>
       <c r="AQ42" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.4648819768132463E-18</v>
       </c>
     </row>
     <row r="43">
@@ -6453,31 +6453,31 @@
         <v>0.5</v>
       </c>
       <c r="AI43" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991422827140847</v>
       </c>
       <c r="AJ43" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9971634146898484</v>
       </c>
       <c r="AK43" t="n" s="83">
-        <v>0.5</v>
+        <v>0.5432010153050011</v>
       </c>
       <c r="AL43" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9990881221538463</v>
       </c>
       <c r="AM43" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9994939673725531</v>
       </c>
       <c r="AN43" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.8876156810696332</v>
       </c>
       <c r="AO43" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9206883539048123</v>
       </c>
       <c r="AP43" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9983654811637053</v>
       </c>
       <c r="AQ43" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.6402210641366673E-19</v>
       </c>
     </row>
     <row r="44">
@@ -6575,31 +6575,31 @@
         <v>0.5</v>
       </c>
       <c r="AI44" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.5855727711275451</v>
       </c>
       <c r="AJ44" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.002784955393111029</v>
       </c>
       <c r="AK44" t="n" s="83">
-        <v>0.5</v>
+        <v>5.266374835841329E-10</v>
       </c>
       <c r="AL44" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.0013431688340489565</v>
       </c>
       <c r="AM44" t="n" s="83">
-        <v>0.5</v>
+        <v>8.50335269845637E-17</v>
       </c>
       <c r="AN44" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.3432250680274074E-41</v>
       </c>
       <c r="AO44" t="n" s="83">
-        <v>0.5</v>
+        <v>6.106756832113996E-9</v>
       </c>
       <c r="AP44" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>8.216848418747975E-36</v>
       </c>
       <c r="AQ44" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.3425644521489974E-72</v>
       </c>
     </row>
     <row r="45">
@@ -6697,31 +6697,31 @@
         <v>0.5</v>
       </c>
       <c r="AI45" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.8457781571924464</v>
       </c>
       <c r="AJ45" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.22954513854108421</v>
       </c>
       <c r="AK45" t="n" s="83">
-        <v>0.5</v>
+        <v>0.01499538438741159</v>
       </c>
       <c r="AL45" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.17276516670087433</v>
       </c>
       <c r="AM45" t="n" s="83">
-        <v>0.5</v>
+        <v>9.836450290180036E-7</v>
       </c>
       <c r="AN45" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>2.2890083320501E-16</v>
       </c>
       <c r="AO45" t="n" s="83">
-        <v>0.5</v>
+        <v>7.438994959328754E-4</v>
       </c>
       <c r="AP45" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>2.839730990345388E-19</v>
       </c>
       <c r="AQ45" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.6610973901266167E-42</v>
       </c>
     </row>
     <row r="46">
@@ -6819,31 +6819,31 @@
         <v>0.5</v>
       </c>
       <c r="AI46" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.7216365388314172</v>
       </c>
       <c r="AJ46" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.047364114278939135</v>
       </c>
       <c r="AK46" t="n" s="83">
-        <v>0.5</v>
+        <v>9.395598786759091E-4</v>
       </c>
       <c r="AL46" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.12214341977864804</v>
       </c>
       <c r="AM46" t="n" s="83">
-        <v>0.5</v>
+        <v>1.8528990394817484E-5</v>
       </c>
       <c r="AN46" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.700556731187089E-12</v>
       </c>
       <c r="AO46" t="n" s="83">
-        <v>0.5</v>
+        <v>5.644619215285334E-5</v>
       </c>
       <c r="AP46" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>5.5921127530379095E-18</v>
       </c>
       <c r="AQ46" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.978218550848296E-39</v>
       </c>
     </row>
     <row r="47">
@@ -6941,31 +6941,31 @@
         <v>0.5</v>
       </c>
       <c r="AI47" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="AJ47" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.942487615974426</v>
       </c>
       <c r="AK47" t="n" s="83">
-        <v>0.5</v>
+        <v>0.07772706228774177</v>
       </c>
       <c r="AL47" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9532107192577095</v>
       </c>
       <c r="AM47" t="n" s="83">
-        <v>0.5</v>
+        <v>0.8502280714651277</v>
       </c>
       <c r="AN47" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>5.823080679787932E-6</v>
       </c>
       <c r="AO47" t="n" s="83">
-        <v>0.5</v>
+        <v>0.6610974795622562</v>
       </c>
       <c r="AP47" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>2.094660688872971E-6</v>
       </c>
       <c r="AQ47" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.913695489031191E-29</v>
       </c>
     </row>
     <row r="48">
@@ -7063,31 +7063,31 @@
         <v>0.5</v>
       </c>
       <c r="AI48" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.8441789733916812</v>
       </c>
       <c r="AJ48" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.22552898730946727</v>
       </c>
       <c r="AK48" t="n" s="83">
-        <v>0.5</v>
+        <v>2.0075988915714275E-4</v>
       </c>
       <c r="AL48" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.1350556493077888</v>
       </c>
       <c r="AM48" t="n" s="83">
-        <v>0.5</v>
+        <v>4.283461241420684E-5</v>
       </c>
       <c r="AN48" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.7251238753058321E-15</v>
       </c>
       <c r="AO48" t="n" s="83">
-        <v>0.5</v>
+        <v>0.0019034755126032135</v>
       </c>
       <c r="AP48" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>3.7519083795726824E-16</v>
       </c>
       <c r="AQ48" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.182511282446816E-42</v>
       </c>
     </row>
     <row r="49">
@@ -7185,31 +7185,31 @@
         <v>0.5</v>
       </c>
       <c r="AI49" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.99908493186602</v>
       </c>
       <c r="AJ49" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.985459380974103</v>
       </c>
       <c r="AK49" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938783980003423</v>
       </c>
       <c r="AL49" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9931197551386584</v>
       </c>
       <c r="AM49" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9957919012945005</v>
       </c>
       <c r="AN49" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.03152290813125834</v>
       </c>
       <c r="AO49" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7456510232853013</v>
       </c>
       <c r="AP49" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>3.2602170908669855E-4</v>
       </c>
       <c r="AQ49" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>8.306337547665241E-25</v>
       </c>
     </row>
     <row r="50">
@@ -7307,31 +7307,31 @@
         <v>0.5</v>
       </c>
       <c r="AI50" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="AJ50" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999581851859193</v>
       </c>
       <c r="AK50" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL50" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9997115511574999</v>
       </c>
       <c r="AM50" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN50" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO50" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP50" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ50" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -7429,31 +7429,31 @@
         <v>0.5</v>
       </c>
       <c r="AI51" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="AJ51" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999874715123507</v>
       </c>
       <c r="AK51" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL51" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999787397365469</v>
       </c>
       <c r="AM51" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN51" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO51" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP51" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ51" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -7551,31 +7551,31 @@
         <v>0.5</v>
       </c>
       <c r="AI52" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="AJ52" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999389013764176</v>
       </c>
       <c r="AK52" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9706443052310972</v>
       </c>
       <c r="AL52" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999792387294061</v>
       </c>
       <c r="AM52" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999967346235512</v>
       </c>
       <c r="AN52" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999998727052</v>
       </c>
       <c r="AO52" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9989420496139444</v>
       </c>
       <c r="AP52" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ52" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.0262555536500452E-5</v>
       </c>
     </row>
     <row r="53">
@@ -7673,31 +7673,31 @@
         <v>0.5</v>
       </c>
       <c r="AI53" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ53" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK53" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL53" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999558722854878</v>
       </c>
       <c r="AM53" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN53" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO53" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP53" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ53" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -7795,31 +7795,31 @@
         <v>0.5</v>
       </c>
       <c r="AI54" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9993238847836715</v>
       </c>
       <c r="AJ54" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999615374880496</v>
       </c>
       <c r="AK54" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9991882347248592</v>
       </c>
       <c r="AL54" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999544681470555</v>
       </c>
       <c r="AM54" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999980119256826</v>
       </c>
       <c r="AN54" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO54" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9567959735721386</v>
       </c>
       <c r="AP54" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999978418034574</v>
       </c>
       <c r="AQ54" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.101634079000873E-5</v>
       </c>
     </row>
     <row r="55">
@@ -7917,31 +7917,31 @@
         <v>0.5</v>
       </c>
       <c r="AI55" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ55" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999993944165498</v>
       </c>
       <c r="AK55" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999999997741</v>
       </c>
       <c r="AL55" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9996953505635855</v>
       </c>
       <c r="AM55" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999999787358</v>
       </c>
       <c r="AN55" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO55" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9701123418208621</v>
       </c>
       <c r="AP55" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9991360989269302</v>
       </c>
       <c r="AQ55" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.9995761609582862</v>
       </c>
     </row>
     <row r="56">
@@ -8039,31 +8039,31 @@
         <v>0.5</v>
       </c>
       <c r="AI56" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991319206125023</v>
       </c>
       <c r="AJ56" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998767704467332</v>
       </c>
       <c r="AK56" t="n" s="83">
-        <v>0.5</v>
+        <v>0.999999878250735</v>
       </c>
       <c r="AL56" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9994362142817947</v>
       </c>
       <c r="AM56" t="n" s="83">
-        <v>0.5</v>
+        <v>0.999999895154426</v>
       </c>
       <c r="AN56" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO56" t="n" s="83">
-        <v>0.5</v>
+        <v>0.961941344757111</v>
       </c>
       <c r="AP56" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999989972159938</v>
       </c>
       <c r="AQ56" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.5054785886363874</v>
       </c>
     </row>
     <row r="57">
@@ -8161,31 +8161,31 @@
         <v>0.5</v>
       </c>
       <c r="AI57" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ57" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK57" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL57" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998427931782771</v>
       </c>
       <c r="AM57" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN57" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO57" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP57" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ57" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -8283,31 +8283,31 @@
         <v>0.5</v>
       </c>
       <c r="AI58" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="AJ58" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999847968861338</v>
       </c>
       <c r="AK58" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999120609238</v>
       </c>
       <c r="AL58" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999792387294061</v>
       </c>
       <c r="AM58" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999999794967</v>
       </c>
       <c r="AN58" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO58" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999664741878704</v>
       </c>
       <c r="AP58" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ58" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.9989299833739479</v>
       </c>
     </row>
     <row r="59">
@@ -8405,31 +8405,31 @@
         <v>0.5</v>
       </c>
       <c r="AI59" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ59" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999891017232216</v>
       </c>
       <c r="AK59" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL59" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999341874675148</v>
       </c>
       <c r="AM59" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN59" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO59" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP59" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ59" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -8527,31 +8527,31 @@
         <v>0.5</v>
       </c>
       <c r="AI60" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ60" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999600018755644</v>
       </c>
       <c r="AK60" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL60" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9997938622801136</v>
       </c>
       <c r="AM60" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN60" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO60" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP60" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ60" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -8649,31 +8649,31 @@
         <v>0.5</v>
       </c>
       <c r="AI61" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9989134652963333</v>
       </c>
       <c r="AJ61" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999972051461203</v>
       </c>
       <c r="AK61" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL61" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9996812348062574</v>
       </c>
       <c r="AM61" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN61" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO61" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP61" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ61" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -8771,31 +8771,31 @@
         <v>0.5</v>
       </c>
       <c r="AI62" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990367672539058</v>
       </c>
       <c r="AJ62" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999133319148013</v>
       </c>
       <c r="AK62" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL62" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998754273825562</v>
       </c>
       <c r="AM62" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN62" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO62" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP62" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ62" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -8893,31 +8893,31 @@
         <v>0.5</v>
       </c>
       <c r="AI63" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9908518591901505</v>
       </c>
       <c r="AJ63" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.7556255472872009</v>
       </c>
       <c r="AK63" t="n" s="83">
-        <v>0.5</v>
+        <v>0.045097696327216094</v>
       </c>
       <c r="AL63" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.6874958991397248</v>
       </c>
       <c r="AM63" t="n" s="83">
-        <v>0.5</v>
+        <v>0.3095655015663773</v>
       </c>
       <c r="AN63" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.01860609685503673</v>
       </c>
       <c r="AO63" t="n" s="83">
-        <v>0.5</v>
+        <v>0.17335030522697473</v>
       </c>
       <c r="AP63" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.292080620276217E-8</v>
       </c>
       <c r="AQ63" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.9518513140989205E-29</v>
       </c>
     </row>
     <row r="64">
@@ -9015,31 +9015,31 @@
         <v>0.5</v>
       </c>
       <c r="AI64" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="AJ64" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998930406796871</v>
       </c>
       <c r="AK64" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7710771691918622</v>
       </c>
       <c r="AL64" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999907064136037</v>
       </c>
       <c r="AM64" t="n" s="83">
-        <v>0.5</v>
+        <v>0.999999354390966</v>
       </c>
       <c r="AN64" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.3037435442837229</v>
       </c>
       <c r="AO64" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999828271534009</v>
       </c>
       <c r="AP64" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ64" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>5.74863332103366E-7</v>
       </c>
     </row>
     <row r="65">
@@ -9137,31 +9137,31 @@
         <v>0.5</v>
       </c>
       <c r="AI65" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9989010233221353</v>
       </c>
       <c r="AJ65" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9983023180830778</v>
       </c>
       <c r="AK65" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL65" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9990882749155412</v>
       </c>
       <c r="AM65" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN65" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO65" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP65" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ65" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -9259,31 +9259,31 @@
         <v>0.5</v>
       </c>
       <c r="AI66" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.8978247960583721</v>
       </c>
       <c r="AJ66" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.4037278449033516</v>
       </c>
       <c r="AK66" t="n" s="83">
-        <v>0.5</v>
+        <v>0.16836286878307308</v>
       </c>
       <c r="AL66" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.21296841143010306</v>
       </c>
       <c r="AM66" t="n" s="83">
-        <v>0.5</v>
+        <v>4.629740406674159E-5</v>
       </c>
       <c r="AN66" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>3.1998237735062786E-13</v>
       </c>
       <c r="AO66" t="n" s="83">
-        <v>0.5</v>
+        <v>2.25795105076176E-4</v>
       </c>
       <c r="AP66" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>8.97322694534367E-18</v>
       </c>
       <c r="AQ66" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>8.547345227445463E-39</v>
       </c>
     </row>
     <row r="67">
@@ -9381,31 +9381,31 @@
         <v>0.5</v>
       </c>
       <c r="AI67" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ67" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9897937932089281</v>
       </c>
       <c r="AK67" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7794296544865638</v>
       </c>
       <c r="AL67" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9971868329788117</v>
       </c>
       <c r="AM67" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9967485595705313</v>
       </c>
       <c r="AN67" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999999918368</v>
       </c>
       <c r="AO67" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9703764802754601</v>
       </c>
       <c r="AP67" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999940764084</v>
       </c>
       <c r="AQ67" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>6.162521522306197E-12</v>
       </c>
     </row>
     <row r="68">
@@ -9503,31 +9503,31 @@
         <v>0.5</v>
       </c>
       <c r="AI68" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9916137145048863</v>
       </c>
       <c r="AJ68" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.796215418535955</v>
       </c>
       <c r="AK68" t="n" s="83">
-        <v>0.5</v>
+        <v>0.8816882830858934</v>
       </c>
       <c r="AL68" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.7921874311379071</v>
       </c>
       <c r="AM68" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7755426066427027</v>
       </c>
       <c r="AN68" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO68" t="n" s="83">
-        <v>0.5</v>
+        <v>0.46438261404976533</v>
       </c>
       <c r="AP68" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.7347101940422514</v>
       </c>
       <c r="AQ68" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.4474875498188639E-11</v>
       </c>
     </row>
     <row r="69">
@@ -9625,31 +9625,31 @@
         <v>0.5</v>
       </c>
       <c r="AI69" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.993260088508286</v>
       </c>
       <c r="AJ69" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.8054417440016551</v>
       </c>
       <c r="AK69" t="n" s="83">
-        <v>0.5</v>
+        <v>0.14630724772498455</v>
       </c>
       <c r="AL69" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.8075563306412998</v>
       </c>
       <c r="AM69" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9172480141503985</v>
       </c>
       <c r="AN69" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>3.2805721185581666E-9</v>
       </c>
       <c r="AO69" t="n" s="83">
-        <v>0.5</v>
+        <v>0.0736694076069814</v>
       </c>
       <c r="AP69" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.3992607000217415E-8</v>
       </c>
       <c r="AQ69" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.7872106718791557E-31</v>
       </c>
     </row>
     <row r="70">
@@ -9747,31 +9747,31 @@
         <v>0.5</v>
       </c>
       <c r="AI70" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="AJ70" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="AK70" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL70" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9991832006763325</v>
       </c>
       <c r="AM70" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN70" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO70" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP70" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ70" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -9869,31 +9869,31 @@
         <v>0.5</v>
       </c>
       <c r="AI71" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ71" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998543352358826</v>
       </c>
       <c r="AK71" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL71" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999119984882625</v>
       </c>
       <c r="AM71" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN71" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO71" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP71" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ71" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -9991,31 +9991,31 @@
         <v>0.5</v>
       </c>
       <c r="AI72" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9989134652963333</v>
       </c>
       <c r="AJ72" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9811878534020879</v>
       </c>
       <c r="AK72" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL72" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9964115392655564</v>
       </c>
       <c r="AM72" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN72" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO72" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP72" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ72" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -10113,31 +10113,31 @@
         <v>0.5</v>
       </c>
       <c r="AI73" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9917976123154182</v>
       </c>
       <c r="AJ73" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.7536154042497604</v>
       </c>
       <c r="AK73" t="n" s="83">
-        <v>0.5</v>
+        <v>0.0254288762117716</v>
       </c>
       <c r="AL73" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.6958140771300814</v>
       </c>
       <c r="AM73" t="n" s="83">
-        <v>0.5</v>
+        <v>0.23200975061186935</v>
       </c>
       <c r="AN73" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>3.192668050227138E-13</v>
       </c>
       <c r="AO73" t="n" s="83">
-        <v>0.5</v>
+        <v>0.09583157754441317</v>
       </c>
       <c r="AP73" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>2.0429366451831835E-10</v>
       </c>
       <c r="AQ73" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>8.331608075235104E-36</v>
       </c>
     </row>
     <row r="74">
@@ -10235,31 +10235,31 @@
         <v>0.5</v>
       </c>
       <c r="AI74" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988446477162691</v>
       </c>
       <c r="AJ74" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999544997834745</v>
       </c>
       <c r="AK74" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999752326225173</v>
       </c>
       <c r="AL74" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9971930973826261</v>
       </c>
       <c r="AM74" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9982999143593996</v>
       </c>
       <c r="AN74" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="AO74" t="n" s="83">
-        <v>0.5</v>
+        <v>0.6795315541701007</v>
       </c>
       <c r="AP74" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.4872734304980781</v>
       </c>
       <c r="AQ74" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>9.898593922618603E-8</v>
       </c>
     </row>
     <row r="75">
@@ -10357,31 +10357,31 @@
         <v>0.5</v>
       </c>
       <c r="AI75" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992544175244477</v>
       </c>
       <c r="AJ75" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9995468509042674</v>
       </c>
       <c r="AK75" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9996202045405918</v>
       </c>
       <c r="AL75" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9982090679728342</v>
       </c>
       <c r="AM75" t="n" s="83">
-        <v>0.5</v>
+        <v>0.999881229720823</v>
       </c>
       <c r="AN75" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO75" t="n" s="83">
-        <v>0.5</v>
+        <v>0.655933991616683</v>
       </c>
       <c r="AP75" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.1012572485658165</v>
       </c>
       <c r="AQ75" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.1545499810051316E-8</v>
       </c>
     </row>
     <row r="76">
@@ -10479,31 +10479,31 @@
         <v>0.5</v>
       </c>
       <c r="AI76" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.994987986561958</v>
       </c>
       <c r="AJ76" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9419047981586145</v>
       </c>
       <c r="AK76" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2357736035839538</v>
       </c>
       <c r="AL76" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9716440553692736</v>
       </c>
       <c r="AM76" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9946944136756977</v>
       </c>
       <c r="AN76" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.14480163009339328</v>
       </c>
       <c r="AO76" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7316384570207659</v>
       </c>
       <c r="AP76" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9617765696732957</v>
       </c>
       <c r="AQ76" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.3356994519943323E-21</v>
       </c>
     </row>
     <row r="77">
@@ -10601,31 +10601,31 @@
         <v>0.5</v>
       </c>
       <c r="AI77" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ77" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9887784353261823</v>
       </c>
       <c r="AK77" t="n" s="83">
-        <v>0.5</v>
+        <v>0.557192041132003</v>
       </c>
       <c r="AL77" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="AM77" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966704765525685</v>
       </c>
       <c r="AN77" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999726044617322</v>
       </c>
       <c r="AO77" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7351452477234627</v>
       </c>
       <c r="AP77" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.0018147089191538164</v>
       </c>
       <c r="AQ77" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.787284620535408E-20</v>
       </c>
     </row>
     <row r="78">
@@ -10723,31 +10723,31 @@
         <v>0.5</v>
       </c>
       <c r="AI78" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ78" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="AK78" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938785599812437</v>
       </c>
       <c r="AL78" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="AM78" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966700618670401</v>
       </c>
       <c r="AN78" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.06257470437979058</v>
       </c>
       <c r="AO78" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7351263744167347</v>
       </c>
       <c r="AP78" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>4.5429554041481735E-4</v>
       </c>
       <c r="AQ78" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.297816175103146E-24</v>
       </c>
     </row>
     <row r="79">
@@ -10845,31 +10845,31 @@
         <v>0.5</v>
       </c>
       <c r="AI79" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="AJ79" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999951729808586</v>
       </c>
       <c r="AK79" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL79" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999499757808052</v>
       </c>
       <c r="AM79" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN79" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO79" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP79" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ79" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -10967,31 +10967,31 @@
         <v>0.5</v>
       </c>
       <c r="AI80" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="AJ80" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="AK80" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL80" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9994560544867048</v>
       </c>
       <c r="AM80" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN80" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO80" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP80" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ80" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -11089,31 +11089,31 @@
         <v>0.5</v>
       </c>
       <c r="AI81" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.999212359524105</v>
       </c>
       <c r="AJ81" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.999986088543199</v>
       </c>
       <c r="AK81" t="n" s="83">
-        <v>0.5</v>
+        <v>0.99999989585058</v>
       </c>
       <c r="AL81" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998957429359728</v>
       </c>
       <c r="AM81" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999914762415</v>
       </c>
       <c r="AN81" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO81" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9826922317833291</v>
       </c>
       <c r="AP81" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999997611361839</v>
       </c>
       <c r="AQ81" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.5509988110141046</v>
       </c>
     </row>
     <row r="82">
@@ -11211,31 +11211,31 @@
         <v>0.5</v>
       </c>
       <c r="AI82" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9986840766393092</v>
       </c>
       <c r="AJ82" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999318829020123</v>
       </c>
       <c r="AK82" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL82" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9966404518925616</v>
       </c>
       <c r="AM82" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN82" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO82" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP82" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ82" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -11333,31 +11333,31 @@
         <v>0.5</v>
       </c>
       <c r="AI83" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.999212353950541</v>
       </c>
       <c r="AJ83" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9996254645345606</v>
       </c>
       <c r="AK83" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999960399475006</v>
       </c>
       <c r="AL83" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9986310553379502</v>
       </c>
       <c r="AM83" t="n" s="83">
-        <v>0.5</v>
+        <v>0.999997859252008</v>
       </c>
       <c r="AN83" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO83" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9806625848441125</v>
       </c>
       <c r="AP83" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999998236521</v>
       </c>
       <c r="AQ83" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.5755918530458941</v>
       </c>
     </row>
     <row r="84">
@@ -11455,31 +11455,31 @@
         <v>0.5</v>
       </c>
       <c r="AI84" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992327733369832</v>
       </c>
       <c r="AJ84" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999792682410735</v>
       </c>
       <c r="AK84" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL84" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999479715887849</v>
       </c>
       <c r="AM84" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN84" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO84" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP84" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ84" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -11577,31 +11577,31 @@
         <v>0.5</v>
       </c>
       <c r="AI85" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436427413272</v>
       </c>
       <c r="AJ85" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9725623684294112</v>
       </c>
       <c r="AK85" t="n" s="83">
-        <v>0.5</v>
+        <v>0.5542642044863877</v>
       </c>
       <c r="AL85" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9704856546801833</v>
       </c>
       <c r="AM85" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9804244985428702</v>
       </c>
       <c r="AN85" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.011266576136585299</v>
       </c>
       <c r="AO85" t="n" s="83">
-        <v>0.5</v>
+        <v>0.5260878186545094</v>
       </c>
       <c r="AP85" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>2.431677053160898E-5</v>
       </c>
       <c r="AQ85" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.576700517137557E-25</v>
       </c>
     </row>
     <row r="86">
@@ -11699,31 +11699,31 @@
         <v>0.5</v>
       </c>
       <c r="AI86" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9904039550055426</v>
       </c>
       <c r="AJ86" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9949649955745424</v>
       </c>
       <c r="AK86" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL86" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9010624632640137</v>
       </c>
       <c r="AM86" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN86" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO86" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP86" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ86" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
@@ -11821,31 +11821,31 @@
         <v>0.5</v>
       </c>
       <c r="AI87" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9993238799987574</v>
       </c>
       <c r="AJ87" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998633270957568</v>
       </c>
       <c r="AK87" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9889487314478255</v>
       </c>
       <c r="AL87" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9995984290996213</v>
       </c>
       <c r="AM87" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999278534522392</v>
       </c>
       <c r="AN87" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999913066963</v>
       </c>
       <c r="AO87" t="n" s="83">
-        <v>0.5</v>
+        <v>0.6782322778814147</v>
       </c>
       <c r="AP87" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.03963208368858275</v>
       </c>
       <c r="AQ87" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.4710913306303217E-14</v>
       </c>
     </row>
     <row r="88">
@@ -11943,31 +11943,31 @@
         <v>0.5</v>
       </c>
       <c r="AI88" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988030070615418</v>
       </c>
       <c r="AJ88" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999959814285257</v>
       </c>
       <c r="AK88" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL88" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9991832006763325</v>
       </c>
       <c r="AM88" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN88" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO88" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP88" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ88" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
@@ -12065,31 +12065,31 @@
         <v>0.5</v>
       </c>
       <c r="AI89" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9992941910880313</v>
       </c>
       <c r="AJ89" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9997823867218287</v>
       </c>
       <c r="AK89" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9667164448607461</v>
       </c>
       <c r="AL89" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9997233754999704</v>
       </c>
       <c r="AM89" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999039745545624</v>
       </c>
       <c r="AN89" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9995707191062981</v>
       </c>
       <c r="AO89" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9615759443594617</v>
       </c>
       <c r="AP89" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999948729561</v>
       </c>
       <c r="AQ89" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.01439470226036E-12</v>
       </c>
     </row>
     <row r="90">
@@ -12187,31 +12187,31 @@
         <v>0.5</v>
       </c>
       <c r="AI90" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ90" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9996416830961774</v>
       </c>
       <c r="AK90" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL90" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9371196160301706</v>
       </c>
       <c r="AM90" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN90" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO90" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP90" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ90" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -12309,31 +12309,31 @@
         <v>0.5</v>
       </c>
       <c r="AI91" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9985540037638162</v>
       </c>
       <c r="AJ91" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999915265188809</v>
       </c>
       <c r="AK91" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL91" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9976184459938552</v>
       </c>
       <c r="AM91" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN91" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO91" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP91" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ91" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -12431,31 +12431,31 @@
         <v>0.5</v>
       </c>
       <c r="AI92" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.99938704174854</v>
       </c>
       <c r="AJ92" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999197515249252</v>
       </c>
       <c r="AK92" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9996404782718541</v>
       </c>
       <c r="AL92" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9976545616046607</v>
       </c>
       <c r="AM92" t="n" s="83">
-        <v>0.5</v>
+        <v>0.999589360846277</v>
       </c>
       <c r="AN92" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999820714924</v>
       </c>
       <c r="AO92" t="n" s="83">
-        <v>0.5</v>
+        <v>0.6170304844136444</v>
       </c>
       <c r="AP92" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9900731477823529</v>
       </c>
       <c r="AQ92" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.90604489871873E-11</v>
       </c>
     </row>
     <row r="93">
@@ -12553,31 +12553,31 @@
         <v>0.5</v>
       </c>
       <c r="AI93" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9988069743309816</v>
       </c>
       <c r="AJ93" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999580349742353</v>
       </c>
       <c r="AK93" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL93" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9927351512297252</v>
       </c>
       <c r="AM93" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN93" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO93" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP93" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ93" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
@@ -12675,31 +12675,31 @@
         <v>0.5</v>
       </c>
       <c r="AI94" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9653971894759951</v>
       </c>
       <c r="AJ94" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.570588167692646</v>
       </c>
       <c r="AK94" t="n" s="83">
-        <v>0.5</v>
+        <v>0.10134923595949782</v>
       </c>
       <c r="AL94" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.4632463267125382</v>
       </c>
       <c r="AM94" t="n" s="83">
-        <v>0.5</v>
+        <v>0.13845528297835133</v>
       </c>
       <c r="AN94" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0780789798147165E-6</v>
       </c>
       <c r="AO94" t="n" s="83">
-        <v>0.5</v>
+        <v>0.07389670198213712</v>
       </c>
       <c r="AP94" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>2.1059904911484977E-5</v>
       </c>
       <c r="AQ94" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>6.218341590218176E-29</v>
       </c>
     </row>
     <row r="95">
@@ -12797,31 +12797,31 @@
         <v>0.5</v>
       </c>
       <c r="AI95" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.999294196082906</v>
       </c>
       <c r="AJ95" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999847968861338</v>
       </c>
       <c r="AK95" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999120609238</v>
       </c>
       <c r="AL95" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999792387294061</v>
       </c>
       <c r="AM95" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999999999794967</v>
       </c>
       <c r="AN95" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO95" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9999664741878704</v>
       </c>
       <c r="AP95" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ95" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>0.9989299833739479</v>
       </c>
     </row>
     <row r="96">
@@ -12919,31 +12919,31 @@
         <v>0.5</v>
       </c>
       <c r="AI96" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ96" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9887784353261823</v>
       </c>
       <c r="AK96" t="n" s="83">
-        <v>0.5</v>
+        <v>0.557203051663698</v>
       </c>
       <c r="AL96" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="AM96" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966738733168061</v>
       </c>
       <c r="AN96" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999890416045664</v>
       </c>
       <c r="AO96" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9042682413893033</v>
       </c>
       <c r="AP96" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.997379965395369</v>
       </c>
       <c r="AQ96" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.1519350049034942E-17</v>
       </c>
     </row>
     <row r="97">
@@ -13041,31 +13041,31 @@
         <v>0.5</v>
       </c>
       <c r="AI97" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991319206125023</v>
       </c>
       <c r="AJ97" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9966884714496063</v>
       </c>
       <c r="AK97" t="n" s="83">
-        <v>0.5</v>
+        <v>0.5431950749625658</v>
       </c>
       <c r="AL97" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9983900623009214</v>
       </c>
       <c r="AM97" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9993973894230375</v>
       </c>
       <c r="AN97" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.7252892138587161</v>
       </c>
       <c r="AO97" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7766590547291946</v>
       </c>
       <c r="AP97" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.003926957240917654</v>
       </c>
       <c r="AQ97" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>9.7398471726486E-22</v>
       </c>
     </row>
     <row r="98">
@@ -13163,31 +13163,31 @@
         <v>0.5</v>
       </c>
       <c r="AI98" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ98" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9887784353261823</v>
       </c>
       <c r="AK98" t="n" s="83">
-        <v>0.5</v>
+        <v>0.557192041132003</v>
       </c>
       <c r="AL98" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="AM98" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966704765525685</v>
       </c>
       <c r="AN98" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999726044617322</v>
       </c>
       <c r="AO98" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7351452477234627</v>
       </c>
       <c r="AP98" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.0018147089191538164</v>
       </c>
       <c r="AQ98" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.787284620535408E-20</v>
       </c>
     </row>
     <row r="99">
@@ -13285,31 +13285,31 @@
         <v>0.5</v>
       </c>
       <c r="AI99" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9993238704297327</v>
       </c>
       <c r="AJ99" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9994870048973071</v>
       </c>
       <c r="AK99" t="n" s="83">
-        <v>0.5</v>
+        <v>0.99899792426723</v>
       </c>
       <c r="AL99" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9918069916856288</v>
       </c>
       <c r="AM99" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9980822031678876</v>
       </c>
       <c r="AN99" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999998672161968</v>
       </c>
       <c r="AO99" t="n" s="83">
-        <v>0.5</v>
+        <v>0.31656960934211636</v>
       </c>
       <c r="AP99" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>4.951015868287216E-4</v>
       </c>
       <c r="AQ99" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.960422652839263E-16</v>
       </c>
     </row>
     <row r="100">
@@ -13407,31 +13407,31 @@
         <v>0.5</v>
       </c>
       <c r="AI100" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ100" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="AK100" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938790970129889</v>
       </c>
       <c r="AL100" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9957804984662378</v>
       </c>
       <c r="AM100" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966708834340239</v>
       </c>
       <c r="AN100" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.14301324377235544</v>
       </c>
       <c r="AO100" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9041962418023943</v>
       </c>
       <c r="AP100" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9896015941308974</v>
       </c>
       <c r="AQ100" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.1260484936341924E-21</v>
       </c>
     </row>
     <row r="101">
@@ -13529,31 +13529,31 @@
         <v>0.5</v>
       </c>
       <c r="AI101" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.99544377358557</v>
       </c>
       <c r="AJ101" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9939081359578636</v>
       </c>
       <c r="AK101" t="n" s="83">
-        <v>0.5</v>
+        <v>0.667588007448746</v>
       </c>
       <c r="AL101" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9988342545247384</v>
       </c>
       <c r="AM101" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9996545178841492</v>
       </c>
       <c r="AN101" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9983846831985678</v>
       </c>
       <c r="AO101" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9805157441068119</v>
       </c>
       <c r="AP101" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.9999999976296363</v>
       </c>
       <c r="AQ101" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.4659208867162038E-13</v>
       </c>
     </row>
     <row r="102">
@@ -13651,31 +13651,31 @@
         <v>0.5</v>
       </c>
       <c r="AI102" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991165418662171</v>
       </c>
       <c r="AJ102" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9999987133948762</v>
       </c>
       <c r="AK102" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AL102" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9998966276589067</v>
       </c>
       <c r="AM102" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AN102" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO102" t="n" s="83">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="AP102" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AQ102" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
@@ -13773,31 +13773,31 @@
         <v>0.5</v>
       </c>
       <c r="AI103" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9911647846311958</v>
       </c>
       <c r="AJ103" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.8087787899341565</v>
       </c>
       <c r="AK103" t="n" s="83">
-        <v>0.5</v>
+        <v>0.022965505631810487</v>
       </c>
       <c r="AL103" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.6187170363557097</v>
       </c>
       <c r="AM103" t="n" s="83">
-        <v>0.5</v>
+        <v>0.18830083965086936</v>
       </c>
       <c r="AN103" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.3810951830993998E-8</v>
       </c>
       <c r="AO103" t="n" s="83">
-        <v>0.5</v>
+        <v>0.15665015554839845</v>
       </c>
       <c r="AP103" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.7597961421505993E-9</v>
       </c>
       <c r="AQ103" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>2.9651648435977156E-33</v>
       </c>
     </row>
     <row r="104">
@@ -13895,31 +13895,31 @@
         <v>0.5</v>
       </c>
       <c r="AI104" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9991319206125023</v>
       </c>
       <c r="AJ104" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9980674936648867</v>
       </c>
       <c r="AK104" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9687735033577772</v>
       </c>
       <c r="AL104" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9983900623009214</v>
       </c>
       <c r="AM104" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9994249491806009</v>
       </c>
       <c r="AN104" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>1.0</v>
       </c>
       <c r="AO104" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7771745899374789</v>
       </c>
       <c r="AP104" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.09101274528712047</v>
       </c>
       <c r="AQ104" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>7.0815509309070955E-12</v>
       </c>
     </row>
     <row r="105">
@@ -14017,31 +14017,31 @@
         <v>0.5</v>
       </c>
       <c r="AI105" t="n" s="83">
-        <v>0.9900990099009901</v>
+        <v>0.9990436495075876</v>
       </c>
       <c r="AJ105" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9880214049895982</v>
       </c>
       <c r="AK105" t="n" s="83">
-        <v>0.5</v>
+        <v>0.2938785599812437</v>
       </c>
       <c r="AL105" t="n" s="83">
-        <v>0.8823529411764706</v>
+        <v>0.9938211287557048</v>
       </c>
       <c r="AM105" t="n" s="83">
-        <v>0.5</v>
+        <v>0.9966700618670401</v>
       </c>
       <c r="AN105" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>0.06257470437979058</v>
       </c>
       <c r="AO105" t="n" s="83">
-        <v>0.5</v>
+        <v>0.7351263744167347</v>
       </c>
       <c r="AP105" t="n" s="83">
-        <v>0.1176470588235294</v>
+        <v>4.5429554041481735E-4</v>
       </c>
       <c r="AQ105" t="n" s="83">
-        <v>0.009900990099009903</v>
+        <v>3.297816175103146E-24</v>
       </c>
     </row>
   </sheetData>
